--- a/FitnessData/dynamic11/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic11/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>175.47</v>
+        <v>198.94</v>
       </c>
       <c r="B2" t="n">
-        <v>189.89</v>
+        <v>209.04</v>
       </c>
       <c r="C2" t="n">
-        <v>184.01</v>
+        <v>181.03</v>
       </c>
       <c r="D2" t="n">
-        <v>191.35</v>
+        <v>172.15</v>
       </c>
       <c r="E2" t="n">
-        <v>180.49</v>
+        <v>183.33</v>
       </c>
       <c r="F2" t="n">
-        <v>175.48</v>
+        <v>199.12</v>
       </c>
       <c r="G2" t="n">
-        <v>178.14</v>
+        <v>177.62</v>
       </c>
       <c r="H2" t="n">
-        <v>185.54</v>
+        <v>158.26</v>
       </c>
       <c r="I2" t="n">
-        <v>200.25</v>
+        <v>188.76</v>
       </c>
       <c r="J2" t="n">
-        <v>175.57</v>
+        <v>175.2</v>
       </c>
       <c r="K2" t="n">
-        <v>181.27</v>
+        <v>180.09</v>
       </c>
       <c r="L2" t="n">
-        <v>198.53</v>
+        <v>167.75</v>
       </c>
       <c r="M2" t="n">
-        <v>168.42</v>
+        <v>178.99</v>
       </c>
       <c r="N2" t="n">
-        <v>218.3</v>
+        <v>206.69</v>
       </c>
       <c r="O2" t="n">
-        <v>208.67</v>
+        <v>164.89</v>
       </c>
       <c r="P2" t="n">
-        <v>174.07</v>
+        <v>169.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.18</v>
+        <v>180.09</v>
       </c>
       <c r="R2" t="n">
-        <v>175.96</v>
+        <v>177.35</v>
       </c>
       <c r="S2" t="n">
-        <v>199.81</v>
+        <v>185.32</v>
       </c>
       <c r="T2" t="n">
-        <v>178.38</v>
+        <v>202.85</v>
       </c>
       <c r="U2" t="n">
-        <v>168.42</v>
+        <v>158.26</v>
       </c>
       <c r="V2" t="n">
-        <v>187.239</v>
+        <v>182.864</v>
       </c>
       <c r="W2" t="n">
-        <v>13.66553632895156</v>
+        <v>14.15787316766113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>488.64</v>
+        <v>420.64</v>
       </c>
       <c r="B3" t="n">
-        <v>446.63</v>
+        <v>484.72</v>
       </c>
       <c r="C3" t="n">
-        <v>435.99</v>
+        <v>447.49</v>
       </c>
       <c r="D3" t="n">
-        <v>434.62</v>
+        <v>462.58</v>
       </c>
       <c r="E3" t="n">
-        <v>495.8</v>
+        <v>438.24</v>
       </c>
       <c r="F3" t="n">
-        <v>475.02</v>
+        <v>453.35</v>
       </c>
       <c r="G3" t="n">
-        <v>468.45</v>
+        <v>412.34</v>
       </c>
       <c r="H3" t="n">
-        <v>462.03</v>
+        <v>427.04</v>
       </c>
       <c r="I3" t="n">
-        <v>515.02</v>
+        <v>441.73</v>
       </c>
       <c r="J3" t="n">
-        <v>492.74</v>
+        <v>449.79</v>
       </c>
       <c r="K3" t="n">
-        <v>500.02</v>
+        <v>444.05</v>
       </c>
       <c r="L3" t="n">
-        <v>433.84</v>
+        <v>450.43</v>
       </c>
       <c r="M3" t="n">
-        <v>487.89</v>
+        <v>442.6</v>
       </c>
       <c r="N3" t="n">
-        <v>490.94</v>
+        <v>430.14</v>
       </c>
       <c r="O3" t="n">
-        <v>455.4</v>
+        <v>474.48</v>
       </c>
       <c r="P3" t="n">
-        <v>458.72</v>
+        <v>467.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>463.4</v>
+        <v>439.98</v>
       </c>
       <c r="R3" t="n">
-        <v>472.88</v>
+        <v>442.38</v>
       </c>
       <c r="S3" t="n">
-        <v>474.84</v>
+        <v>447.52</v>
       </c>
       <c r="T3" t="n">
-        <v>463.99</v>
+        <v>438.07</v>
       </c>
       <c r="U3" t="n">
-        <v>433.84</v>
+        <v>412.34</v>
       </c>
       <c r="V3" t="n">
-        <v>470.843</v>
+        <v>445.7495</v>
       </c>
       <c r="W3" t="n">
-        <v>22.95025515280707</v>
+        <v>17.36381248307435</v>
       </c>
     </row>
   </sheetData>
